--- a/file_checks/X_wrong_genes_correct_pheno.xlsx
+++ b/file_checks/X_wrong_genes_correct_pheno.xlsx
@@ -1451,520 +1451,520 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.186124836978263</v>
+        <v>0.359652566833993</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.10480913742608</v>
+        <v>0.233362040990526</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.693543339051603</v>
+        <v>-0.107071743737297</v>
       </c>
       <c r="D2" t="n">
-        <v>1.94863845079073</v>
+        <v>1.30726015825333</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.73789086059885</v>
+        <v>1.4672086733223</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.421632053490058</v>
+        <v>0.558302919354618</v>
       </c>
       <c r="G2" t="n">
-        <v>1.76255979686538</v>
+        <v>-0.0730877212490372</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.7344246734323</v>
+        <v>0.571477760914589</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.12258798311169</v>
+        <v>0.996079857549945</v>
       </c>
       <c r="J2" t="n">
-        <v>0.273608894311201</v>
+        <v>0.52587724882145</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.825574238798557</v>
+        <v>-0.978154632937606</v>
       </c>
       <c r="L2" t="n">
-        <v>0.361840252151174</v>
+        <v>-0.25478360185962</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.199231000028701</v>
+        <v>-0.608733486002947</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.150953813932511</v>
+        <v>-0.803040890768899</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.35160235862179</v>
+        <v>0.643674090196497</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.531034789717605</v>
+        <v>-1.21376764524081</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.526141729854325</v>
+        <v>-1.16403495290748</v>
       </c>
       <c r="R2" t="n">
-        <v>0.414010197175249</v>
+        <v>-1.03697591899633</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.035014861398888</v>
+        <v>1.65071526554672</v>
       </c>
       <c r="T2" t="n">
-        <v>0.232278884004058</v>
+        <v>2.21330374607098</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.99132702242448</v>
+        <v>-0.578167607747603</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.447004374774844</v>
+        <v>1.45693032973594</v>
       </c>
       <c r="W2" t="n">
-        <v>0.540947290038701</v>
+        <v>0.661702558406092</v>
       </c>
       <c r="X2" t="n">
-        <v>1.22423403849226</v>
+        <v>-0.0976244326981723</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.8591437738444</v>
+        <v>1.30778474199884</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.125374915287465</v>
+        <v>-1.5713359968422</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.115158605606497</v>
+        <v>-0.332510328850803</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.941083988014877</v>
+        <v>-0.379052861571835</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.36009847196382</v>
+        <v>0.309676130034965</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.355907061171587</v>
+        <v>0.369692883939696</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.67500041983977</v>
+        <v>-0.154554730610357</v>
       </c>
       <c r="AF2" t="n">
-        <v>-2.55468467371975</v>
+        <v>-0.866363191090116</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.715727807645828</v>
+        <v>-2.13576199006086</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.22473674352183</v>
+        <v>1.41262281366175</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.315690035637848</v>
+        <v>0.743531534758683</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.445275367143165</v>
+        <v>-0.251124252742996</v>
       </c>
       <c r="AK2" t="n">
-        <v>-1.03456952405219</v>
+        <v>0.263494848556762</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.99332475254737</v>
+        <v>2.21126713350702</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.14623521964789</v>
+        <v>0.0557829535869581</v>
       </c>
       <c r="AN2" t="n">
-        <v>-1.00122949985736</v>
+        <v>1.19378206953463</v>
       </c>
       <c r="AO2" t="n">
-        <v>-2.32858934421801</v>
+        <v>-0.905392606156189</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.456363939605112</v>
+        <v>0.446436111508024</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.53661530880272</v>
+        <v>0.517270937386322</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.244011677170382</v>
+        <v>-0.644961818309399</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.263505838426938</v>
+        <v>0.0586197461922979</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.542926900690545</v>
+        <v>1.08274040496412</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.07916812121923</v>
+        <v>-0.189764737398683</v>
       </c>
       <c r="AV2" t="n">
-        <v>-1.4291667746915</v>
+        <v>-2.41085365550972</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.924778187696075</v>
+        <v>1.29160761162918</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.240252942276812</v>
+        <v>0.23978151224445</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.515780214181615</v>
+        <v>-0.00218628152994758</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.88377570217098</v>
+        <v>0.378514030385368</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.313453801979381</v>
+        <v>-1.0446659586111</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.0027104350413</v>
+        <v>0.477807684275058</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.18763121337189</v>
+        <v>0.0953817875224742</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.02563750758751</v>
+        <v>-0.419570258880077</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.4261536468641</v>
+        <v>0.182076380557823</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.88005693707261</v>
+        <v>0.723487716765916</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.850172022773855</v>
+        <v>1.19387537848724</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.424845500321501</v>
+        <v>-1.2497565936779</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.232332376747228</v>
+        <v>0.779964634145482</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.681599227335918</v>
+        <v>-0.617319942962648</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.813943707596078</v>
+        <v>0.0629685657259138</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.305973853456531</v>
+        <v>-0.249683343800488</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.54814697172452</v>
+        <v>0.419697449873135</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.417466749311615</v>
+        <v>-0.225728075448045</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.672232213643827</v>
+        <v>-1.29200016401329</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.217050359637965</v>
+        <v>-0.0423750695630626</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.956878166673697</v>
+        <v>-1.57073388507647</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.0322184259598524</v>
+        <v>0.346306144187937</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.446397848632099</v>
+        <v>0.0612954066255437</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.0125787703357343</v>
+        <v>-0.159258778884027</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.234121771559162</v>
+        <v>-0.476442096671042</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.835260615427599</v>
+        <v>-0.00909430395119963</v>
       </c>
       <c r="BW2" t="n">
-        <v>-1.00328726781488</v>
+        <v>-0.208964640051702</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.89581030212407</v>
+        <v>-1.10752512382957</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.935925092596146</v>
+        <v>1.10063717084647</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.324538227924021</v>
+        <v>0.729300493120588</v>
       </c>
       <c r="CA2" t="n">
-        <v>-2.35644942941294</v>
+        <v>0.848142140469242</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.71049602779787</v>
+        <v>0.270889362115313</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.44380427130784</v>
+        <v>0.393434655925058</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.38195419063854</v>
+        <v>-0.917343341226876</v>
       </c>
       <c r="CE2" t="n">
-        <v>-1.9046686934376</v>
+        <v>0.678034559848498</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0272001109307346</v>
+        <v>1.3313862667022</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.497215209533256</v>
+        <v>-1.03340246305984</v>
       </c>
       <c r="CH2" t="n">
-        <v>-1.43669454833209</v>
+        <v>0.69650826756987</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.495860013986724</v>
+        <v>1.58192260630836</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.127489707691515</v>
+        <v>1.45118732907495</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0945117668585369</v>
+        <v>-0.832857441881876</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.812447624583301</v>
+        <v>-0.92136036940267</v>
       </c>
       <c r="CM2" t="n">
-        <v>-1.36898909774664</v>
+        <v>0.394282181521836</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.878082601819247</v>
+        <v>-0.0107990115876503</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.32773284447327</v>
+        <v>-1.12742746106039</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.644431875363133</v>
+        <v>-0.398230298001039</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.298904368242986</v>
+        <v>2.25608310072173</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.795769599384711</v>
+        <v>0.436560088645488</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.06744493570627</v>
+        <v>-1.04040609120946</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.533078489536902</v>
+        <v>0.877455111907964</v>
       </c>
       <c r="CU2" t="n">
-        <v>-1.52387227598099</v>
+        <v>-0.958114441063842</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.221184880041132</v>
+        <v>-0.708592824055923</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.862531441250812</v>
+        <v>0.763807372941593</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.206595193887713</v>
+        <v>1.49549986199987</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.94533523712555</v>
+        <v>-0.46251189389244</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-1.54922754753245</v>
+        <v>0.0801103641350629</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.972899438879715</v>
+        <v>1.57381695336714</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.189460156930721</v>
+        <v>-1.1258099705094</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.164211187112103</v>
+        <v>0.471138707409825</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.271065904470336</v>
+        <v>-0.203578689105733</v>
       </c>
       <c r="DE2" t="n">
-        <v>-1.21210430672561</v>
+        <v>1.68155180358776</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.183658966776678</v>
+        <v>0.416251809331962</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.03904536421961</v>
+        <v>0.13403939223378</v>
       </c>
       <c r="DH2" t="n">
-        <v>1.33969790111921</v>
+        <v>0.254825188845958</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.01665225446566</v>
+        <v>-1.70462361673547</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.42734918474857</v>
+        <v>-1.1980734588908</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.405059195873833</v>
+        <v>-1.22584668231815</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.21160908365372</v>
+        <v>1.40112076373388</v>
       </c>
       <c r="DM2" t="n">
-        <v>-1.02396859271462</v>
+        <v>-0.996160100193226</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.659150762822894</v>
+        <v>1.11616334518327</v>
       </c>
       <c r="DO2" t="n">
-        <v>1.33522029516946</v>
+        <v>-1.34649291298066</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.266142570568051</v>
+        <v>1.43876449717186</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.667670962345782</v>
+        <v>0.52889846086357</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.46668359424725</v>
+        <v>0.301087779124907</v>
       </c>
       <c r="DS2" t="n">
-        <v>-1.77746084290359</v>
+        <v>0.0951524080506809</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.932749128121847</v>
+        <v>-0.209373288599846</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0255979826090225</v>
+        <v>-0.766388676080868</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.630833955068032</v>
+        <v>-2.27840843342193</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.639455409381814</v>
+        <v>-0.77450230178278</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.613103017682608</v>
+        <v>1.40910139372551</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.02749914133676</v>
+        <v>0.278680424761382</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.691308890129456</v>
+        <v>0.313127540647749</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.200269064898601</v>
+        <v>-0.0436659782206429</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.620680603079722</v>
+        <v>-0.0744096251775301</v>
       </c>
       <c r="EC2" t="n">
-        <v>-1.60236091777495</v>
+        <v>1.58566439732113</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.708779908529088</v>
+        <v>0.0284434283607537</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.638363397757072</v>
+        <v>-1.59542778073461</v>
       </c>
       <c r="EF2" t="n">
-        <v>-1.42946605539969</v>
+        <v>1.06728421207428</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.213678669583823</v>
+        <v>0.780405009961337</v>
       </c>
       <c r="EH2" t="n">
-        <v>-1.58438720970751</v>
+        <v>0.548673445741266</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.02977409594668</v>
+        <v>1.51597153905996</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.675111200440632</v>
+        <v>1.42824545355423</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.304010420523673</v>
+        <v>-0.635215768924494</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.0253520566319867</v>
+        <v>-0.0493054052096332</v>
       </c>
       <c r="EM2" t="n">
-        <v>-1.25809290837791</v>
+        <v>2.27743370893563</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.887121387183101</v>
+        <v>0.1553330244128</v>
       </c>
       <c r="EO2" t="n">
-        <v>-2.39103753971297</v>
+        <v>-1.08386276370022</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.239899088095181</v>
+        <v>-0.443305322407048</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.284971712987522</v>
+        <v>1.47378583897578</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.961403217739539</v>
+        <v>1.388204045508</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.260460164751118</v>
+        <v>-0.608633542682307</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.879190402307555</v>
+        <v>-0.216907516037315</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.753340604095783</v>
+        <v>-0.459147320001076</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.544290950752307</v>
+        <v>-1.11665214284059</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.666252929342116</v>
+        <v>1.31020701113953</v>
       </c>
       <c r="EX2" t="n">
-        <v>-1.47433130819326</v>
+        <v>1.90234695189517</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.539132862758943</v>
+        <v>-0.00555295049391261</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.000741352001408901</v>
+        <v>-1.47998009587591</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.65200633660056</v>
+        <v>-1.39194358569935</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.974067701842977</v>
+        <v>-0.112341107949784</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.923257913997218</v>
+        <v>-1.65623931643972</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.666014880208447</v>
+        <v>0.41086962495179</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.642340411605623</v>
+        <v>-0.421765633773395</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.20829188418015</v>
+        <v>0.390137078073301</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.372804185661767</v>
+        <v>0.666843593661353</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0781694044549727</v>
+        <v>0.773115139877281</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.332060148041647</v>
+        <v>1.02707529874554</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.560615941130364</v>
+        <v>0.104245893636782</v>
       </c>
       <c r="FK2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM2" t="n">
         <v>1</v>
       </c>
       <c r="FN2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO2" t="n">
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1976,31 +1976,31 @@
         <v>1</v>
       </c>
       <c r="FT2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU2" t="n">
         <v>1</v>
       </c>
       <c r="FV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW2" t="n">
         <v>1</v>
       </c>
-      <c r="FW2" t="n">
+      <c r="FX2" t="n">
         <v>0</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>1</v>
       </c>
       <c r="FY2" t="n">
         <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA2" t="n">
         <v>1</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/X_wrong_genes_correct_pheno.xlsx
+++ b/file_checks/X_wrong_genes_correct_pheno.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t xml:space="preserve">X_1</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t xml:space="preserve">rorS_risk_high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HER2_scmod1</t>
   </si>
   <si>
     <t xml:space="preserve">Endo</t>
@@ -1448,511 +1457,520 @@
       <c r="GB1" t="s">
         <v>183</v>
       </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.359652566833993</v>
+        <v>-0.947052607498268</v>
       </c>
       <c r="B2" t="n">
-        <v>0.233362040990526</v>
+        <v>-0.415143167799026</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.107071743737297</v>
+        <v>-1.3735477221988</v>
       </c>
       <c r="D2" t="n">
-        <v>1.30726015825333</v>
+        <v>0.324760121395228</v>
       </c>
       <c r="E2" t="n">
-        <v>1.4672086733223</v>
+        <v>0.613810314972725</v>
       </c>
       <c r="F2" t="n">
-        <v>0.558302919354618</v>
+        <v>-2.06773994699083</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0730877212490372</v>
+        <v>1.36475453439094</v>
       </c>
       <c r="H2" t="n">
-        <v>0.571477760914589</v>
+        <v>0.122145954093084</v>
       </c>
       <c r="I2" t="n">
-        <v>0.996079857549945</v>
+        <v>-0.437788642380239</v>
       </c>
       <c r="J2" t="n">
-        <v>0.52587724882145</v>
+        <v>-0.386493492778907</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.978154632937606</v>
+        <v>1.40284643207387</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.25478360185962</v>
+        <v>-1.32241634969999</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.608733486002947</v>
+        <v>-1.6003737433461</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.803040890768899</v>
+        <v>0.0641624879739519</v>
       </c>
       <c r="O2" t="n">
-        <v>0.643674090196497</v>
+        <v>0.96351133275272</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.21376764524081</v>
+        <v>0.231969158351335</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.16403495290748</v>
+        <v>1.03706553768075</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.03697591899633</v>
+        <v>1.2015419639724</v>
       </c>
       <c r="S2" t="n">
-        <v>1.65071526554672</v>
+        <v>-0.752246634125998</v>
       </c>
       <c r="T2" t="n">
-        <v>2.21330374607098</v>
+        <v>-0.324371064393578</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.578167607747603</v>
+        <v>-0.508397942597255</v>
       </c>
       <c r="V2" t="n">
-        <v>1.45693032973594</v>
+        <v>-1.82905820124628</v>
       </c>
       <c r="W2" t="n">
-        <v>0.661702558406092</v>
+        <v>-0.0167029080699608</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.0976244326981723</v>
+        <v>1.52744933476504</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.30778474199884</v>
+        <v>1.22867642805551</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.5713359968422</v>
+        <v>0.34944934034567</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.332510328850803</v>
+        <v>0.769241102692667</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.379052861571835</v>
+        <v>0.0701425611391995</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.309676130034965</v>
+        <v>0.232176577598806</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.369692883939696</v>
+        <v>0.118412658888825</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.154554730610357</v>
+        <v>-0.654267411565991</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.866363191090116</v>
+        <v>-0.769739881369711</v>
       </c>
       <c r="AG2" t="n">
-        <v>-2.13576199006086</v>
+        <v>-1.21366633860548</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.41262281366175</v>
+        <v>0.293331641852332</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.743531534758683</v>
+        <v>1.02112890422554</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.251124252742996</v>
+        <v>-1.29457423060952</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.263494848556762</v>
+        <v>1.91312473499297</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.21126713350702</v>
+        <v>0.535968223800915</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0557829535869581</v>
+        <v>2.22288843069386</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.19378206953463</v>
+        <v>0.168984050465199</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.905392606156189</v>
+        <v>-0.284351993958913</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.446436111508024</v>
+        <v>-0.260543849089978</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.517270937386322</v>
+        <v>1.24771303858124</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.644961818309399</v>
+        <v>1.8080588412953</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0586197461922979</v>
+        <v>1.00701301956854</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.08274040496412</v>
+        <v>1.19853232031896</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.189764737398683</v>
+        <v>-0.68133379157608</v>
       </c>
       <c r="AV2" t="n">
-        <v>-2.41085365550972</v>
+        <v>-0.114100519583864</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.29160761162918</v>
+        <v>-0.893640961084544</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.23978151224445</v>
+        <v>0.551951828932101</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.00218628152994758</v>
+        <v>-1.00550025592379</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.378514030385368</v>
+        <v>-0.361959149294169</v>
       </c>
       <c r="BA2" t="n">
-        <v>-1.0446659586111</v>
+        <v>0.25580877049936</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.477807684275058</v>
+        <v>-0.123631092167535</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0953817875224742</v>
+        <v>0.815861636414306</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.419570258880077</v>
+        <v>-1.17684777761191</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.182076380557823</v>
+        <v>-0.279694161581154</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.723487716765916</v>
+        <v>-1.31272931299067</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.19387537848724</v>
+        <v>1.50458364621761</v>
       </c>
       <c r="BH2" t="n">
-        <v>-1.2497565936779</v>
+        <v>-1.56742456288957</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.779964634145482</v>
+        <v>1.40426302869145</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.617319942962648</v>
+        <v>1.60416254180353</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0629685657259138</v>
+        <v>3.04409807686403</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.249683343800488</v>
+        <v>-0.974519473953012</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.419697449873135</v>
+        <v>-0.600426674363883</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.225728075448045</v>
+        <v>-1.38304343412458</v>
       </c>
       <c r="BO2" t="n">
-        <v>-1.29200016401329</v>
+        <v>-0.438280708854995</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.0423750695630626</v>
+        <v>0.538709726297296</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-1.57073388507647</v>
+        <v>0.327800595203665</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.346306144187937</v>
+        <v>-0.182559908306142</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0612954066255437</v>
+        <v>0.355657700860159</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.159258778884027</v>
+        <v>1.08232289268495</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.476442096671042</v>
+        <v>0.270989221297779</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.00909430395119963</v>
+        <v>0.876046423567852</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.208964640051702</v>
+        <v>-0.0104385639676238</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.10752512382957</v>
+        <v>-1.15726546377269</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.10063717084647</v>
+        <v>0.129774965768557</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.729300493120588</v>
+        <v>-0.779350506513051</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.848142140469242</v>
+        <v>-2.37980211327197</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.270889362115313</v>
+        <v>0.788467730316453</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.393434655925058</v>
+        <v>0.537910062296887</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.917343341226876</v>
+        <v>-0.458283536170535</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.678034559848498</v>
+        <v>1.39539464394907</v>
       </c>
       <c r="CF2" t="n">
-        <v>1.3313862667022</v>
+        <v>0.29261568321781</v>
       </c>
       <c r="CG2" t="n">
-        <v>-1.03340246305984</v>
+        <v>-0.960991440321995</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.69650826756987</v>
+        <v>0.457751996862612</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.58192260630836</v>
+        <v>-0.12575150261281</v>
       </c>
       <c r="CJ2" t="n">
-        <v>1.45118732907495</v>
+        <v>-0.68588659884581</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.832857441881876</v>
+        <v>0.341721264983551</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.92136036940267</v>
+        <v>-0.0261101038045908</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.394282181521836</v>
+        <v>0.643517622736499</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.0107990115876503</v>
+        <v>0.256000175814875</v>
       </c>
       <c r="CO2" t="n">
-        <v>-1.12742746106039</v>
+        <v>-1.00189664312501</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.398230298001039</v>
+        <v>1.34323321998082</v>
       </c>
       <c r="CQ2" t="n">
-        <v>2.25608310072173</v>
+        <v>0.0693332279469266</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.436560088645488</v>
+        <v>0.179423430797349</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.04040609120946</v>
+        <v>-0.360872855154456</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.877455111907964</v>
+        <v>-0.10197061571321</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.958114441063842</v>
+        <v>1.51889668899416</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.708592824055923</v>
+        <v>0.866560535178067</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.763807372941593</v>
+        <v>1.6606710137579</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.49549986199987</v>
+        <v>-0.3258958376218</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.46251189389244</v>
+        <v>-1.59111205452818</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0801103641350629</v>
+        <v>-1.39504347678715</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.57381695336714</v>
+        <v>0.549978468141776</v>
       </c>
       <c r="DB2" t="n">
-        <v>-1.1258099705094</v>
+        <v>-0.181610326642432</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.471138707409825</v>
+        <v>-0.566354994746532</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.203578689105733</v>
+        <v>0.703882239834422</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.68155180358776</v>
+        <v>-0.0619800279610431</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.416251809331962</v>
+        <v>-0.205194601343406</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.13403939223378</v>
+        <v>0.932027119629167</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.254825188845958</v>
+        <v>0.489307948063159</v>
       </c>
       <c r="DI2" t="n">
-        <v>-1.70462361673547</v>
+        <v>-1.43937141857572</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-1.1980734588908</v>
+        <v>0.553233610567102</v>
       </c>
       <c r="DK2" t="n">
-        <v>-1.22584668231815</v>
+        <v>0.726642450152666</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.40112076373388</v>
+        <v>1.86486497414622</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.996160100193226</v>
+        <v>0.397520005757382</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.11616334518327</v>
+        <v>-1.10267088307772</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.34649291298066</v>
+        <v>0.642956799594908</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.43876449717186</v>
+        <v>0.205810607035928</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.52889846086357</v>
+        <v>0.352909212861216</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.301087779124907</v>
+        <v>-0.306687740718694</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0951524080506809</v>
+        <v>-1.71560841665214</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.209373288599846</v>
+        <v>-0.806878480417625</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.766388676080868</v>
+        <v>1.96051771349193</v>
       </c>
       <c r="DV2" t="n">
-        <v>-2.27840843342193</v>
+        <v>-0.895147524959368</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.77450230178278</v>
+        <v>1.05999877551697</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.40910139372551</v>
+        <v>0.204911257400106</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.278680424761382</v>
+        <v>-0.694137346180055</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.313127540647749</v>
+        <v>-0.534533267916066</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.0436659782206429</v>
+        <v>-0.531571279562635</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.0744096251775301</v>
+        <v>1.19704159207575</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.58566439732113</v>
+        <v>0.591692715832631</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0284434283607537</v>
+        <v>-1.4895770087561</v>
       </c>
       <c r="EE2" t="n">
-        <v>-1.59542778073461</v>
+        <v>0.974978302253588</v>
       </c>
       <c r="EF2" t="n">
-        <v>1.06728421207428</v>
+        <v>0.522849578164117</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.780405009961337</v>
+        <v>-0.232861270004726</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.548673445741266</v>
+        <v>-1.53758905787162</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.51597153905996</v>
+        <v>0.484545366007226</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.42824545355423</v>
+        <v>-0.642937745638236</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.635215768924494</v>
+        <v>0.976400435875186</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.0493054052096332</v>
+        <v>0.603643795416822</v>
       </c>
       <c r="EM2" t="n">
-        <v>2.27743370893563</v>
+        <v>1.10733598962717</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.1553330244128</v>
+        <v>-1.2671581907071</v>
       </c>
       <c r="EO2" t="n">
-        <v>-1.08386276370022</v>
+        <v>-0.301681628907489</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.443305322407048</v>
+        <v>0.0692169610556513</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.47378583897578</v>
+        <v>-1.01047354938234</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.388204045508</v>
+        <v>-0.290309412738027</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.608633542682307</v>
+        <v>1.72979176550386</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.216907516037315</v>
+        <v>0.325152216367343</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.459147320001076</v>
+        <v>1.65411482729117</v>
       </c>
       <c r="EV2" t="n">
-        <v>-1.11665214284059</v>
+        <v>0.0246289229789698</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.31020701113953</v>
+        <v>0.562119928334779</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.90234695189517</v>
+        <v>-1.54240236778948</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.00555295049391261</v>
+        <v>-0.613908766986969</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-1.47998009587591</v>
+        <v>0.22066976629704</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.39194358569935</v>
+        <v>-0.0375237243651569</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.112341107949784</v>
+        <v>0.387995492780193</v>
       </c>
       <c r="FC2" t="n">
-        <v>-1.65623931643972</v>
+        <v>1.47753112719054</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.41086962495179</v>
+        <v>0.212631165488538</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.421765633773395</v>
+        <v>0.294915592615741</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.390137078073301</v>
+        <v>-1.19820391626627</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.666843593661353</v>
+        <v>-0.298000349459213</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.773115139877281</v>
+        <v>0.572046179879754</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.02707529874554</v>
+        <v>-1.00412508657158</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.104245893636782</v>
+        <v>-0.806532628518724</v>
       </c>
       <c r="FK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>1</v>
@@ -1967,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
         <v>0</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
       </c>
       <c r="FS2" t="n">
         <v>1</v>
@@ -1979,13 +1997,13 @@
         <v>1</v>
       </c>
       <c r="FU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV2" t="n">
         <v>1</v>
       </c>
-      <c r="FV2" t="n">
+      <c r="FW2" t="n">
         <v>0</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>1</v>
       </c>
       <c r="FX2" t="n">
         <v>0</v>
@@ -2001,6 +2019,15 @@
       </c>
       <c r="GB2" t="n">
         <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/X_wrong_genes_correct_pheno.xlsx
+++ b/file_checks/X_wrong_genes_correct_pheno.xlsx
@@ -1469,508 +1469,508 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.947052607498268</v>
+        <v>-0.558499057031257</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.415143167799026</v>
+        <v>0.970910296997369</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.3735477221988</v>
+        <v>-2.65165588522995</v>
       </c>
       <c r="D2" t="n">
-        <v>0.324760121395228</v>
+        <v>-1.25629273026265</v>
       </c>
       <c r="E2" t="n">
-        <v>0.613810314972725</v>
+        <v>-0.524758164708642</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.06773994699083</v>
+        <v>0.745174138389105</v>
       </c>
       <c r="G2" t="n">
-        <v>1.36475453439094</v>
+        <v>-0.943078077442902</v>
       </c>
       <c r="H2" t="n">
-        <v>0.122145954093084</v>
+        <v>-0.890946793438789</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.437788642380239</v>
+        <v>-0.000256526907656335</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.386493492778907</v>
+        <v>0.487271430798687</v>
       </c>
       <c r="K2" t="n">
-        <v>1.40284643207387</v>
+        <v>-0.591981298808255</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.32241634969999</v>
+        <v>-0.555260893396534</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.6003737433461</v>
+        <v>1.41963254884399</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0641624879739519</v>
+        <v>-0.178777745671025</v>
       </c>
       <c r="O2" t="n">
-        <v>0.96351133275272</v>
+        <v>-0.341750354961051</v>
       </c>
       <c r="P2" t="n">
-        <v>0.231969158351335</v>
+        <v>-0.858705217824821</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.03706553768075</v>
+        <v>-0.607272876901586</v>
       </c>
       <c r="R2" t="n">
-        <v>1.2015419639724</v>
+        <v>-0.149267172017883</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.752246634125998</v>
+        <v>0.533130083553521</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.324371064393578</v>
+        <v>0.912562984673923</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.508397942597255</v>
+        <v>-0.270946160172818</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.82905820124628</v>
+        <v>1.28688107042953</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.0167029080699608</v>
+        <v>1.2040454528263</v>
       </c>
       <c r="X2" t="n">
-        <v>1.52744933476504</v>
+        <v>0.947426611544909</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.22867642805551</v>
+        <v>0.977050729006157</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.34944934034567</v>
+        <v>-0.521976705026398</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.769241102692667</v>
+        <v>0.736245554392181</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0701425611391995</v>
+        <v>-0.0782618864395199</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.232176577598806</v>
+        <v>-2.58341343752658</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.118412658888825</v>
+        <v>0.913552847464998</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.654267411565991</v>
+        <v>0.989005143574503</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.769739881369711</v>
+        <v>0.426057740269547</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.21366633860548</v>
+        <v>-1.53216409325668</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.293331641852332</v>
+        <v>0.875971130479726</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.02112890422554</v>
+        <v>-0.41241476343375</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.29457423060952</v>
+        <v>-0.152025549450169</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.91312473499297</v>
+        <v>1.26002438189236</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.535968223800915</v>
+        <v>-1.99194810083467</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.22288843069386</v>
+        <v>-0.126768333175872</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.168984050465199</v>
+        <v>0.0744531499870046</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.284351993958913</v>
+        <v>0.44206062328999</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.260543849089978</v>
+        <v>0.0808378925434537</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.24771303858124</v>
+        <v>0.183698991616763</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.8080588412953</v>
+        <v>-1.22466774605319</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.00701301956854</v>
+        <v>-1.91891293581002</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.19853232031896</v>
+        <v>1.16077185464076</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.68133379157608</v>
+        <v>-1.85168125627267</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.114100519583864</v>
+        <v>0.305386429539274</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.893640961084544</v>
+        <v>0.197536259613664</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.551951828932101</v>
+        <v>-1.02090409708338</v>
       </c>
       <c r="AY2" t="n">
-        <v>-1.00550025592379</v>
+        <v>-0.216428457794676</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.361959149294169</v>
+        <v>-1.35537206265587</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.25580877049936</v>
+        <v>0.652115841212703</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.123631092167535</v>
+        <v>-2.13193090759814</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.815861636414306</v>
+        <v>2.07923900200572</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.17684777761191</v>
+        <v>0.133246174245972</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.279694161581154</v>
+        <v>-1.00715176092828</v>
       </c>
       <c r="BF2" t="n">
-        <v>-1.31272931299067</v>
+        <v>1.22056435400494</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.50458364621761</v>
+        <v>-0.132948172544225</v>
       </c>
       <c r="BH2" t="n">
-        <v>-1.56742456288957</v>
+        <v>-0.341314616308347</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.40426302869145</v>
+        <v>-0.516705693491488</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.60416254180353</v>
+        <v>0.853230841655835</v>
       </c>
       <c r="BK2" t="n">
-        <v>3.04409807686403</v>
+        <v>0.611613174650366</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.974519473953012</v>
+        <v>-0.692444501812007</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.600426674363883</v>
+        <v>-0.154204131325451</v>
       </c>
       <c r="BN2" t="n">
-        <v>-1.38304343412458</v>
+        <v>-0.504653791840129</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.438280708854995</v>
+        <v>-1.09723248155415</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.538709726297296</v>
+        <v>-0.98192273774357</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.327800595203665</v>
+        <v>0.687793088181517</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.182559908306142</v>
+        <v>0.290021649961014</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.355657700860159</v>
+        <v>-0.37284036680962</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.08232289268495</v>
+        <v>-0.676590982093964</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.270989221297779</v>
+        <v>0.313359760613908</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.876046423567852</v>
+        <v>1.02636909416141</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.0104385639676238</v>
+        <v>-0.85059637066892</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.15726546377269</v>
+        <v>1.52734205814212</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.129774965768557</v>
+        <v>-1.67708733289654</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.779350506513051</v>
+        <v>-0.412458909698148</v>
       </c>
       <c r="CA2" t="n">
-        <v>-2.37980211327197</v>
+        <v>-0.0890119448875667</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.788467730316453</v>
+        <v>-0.130193314848407</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.537910062296887</v>
+        <v>-1.93370733081261</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.458283536170535</v>
+        <v>0.53813932796031</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.39539464394907</v>
+        <v>1.76565229333619</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.29261568321781</v>
+        <v>-0.810929432387217</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.960991440321995</v>
+        <v>1.32836060007509</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.457751996862612</v>
+        <v>-1.26034381339094</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.12575150261281</v>
+        <v>0.039864317817977</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.68588659884581</v>
+        <v>1.33409148986455</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.341721264983551</v>
+        <v>0.533393648922011</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.0261101038045908</v>
+        <v>-1.61182191603271</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.643517622736499</v>
+        <v>-0.248043046217706</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.256000175814875</v>
+        <v>1.12153890485833</v>
       </c>
       <c r="CO2" t="n">
-        <v>-1.00189664312501</v>
+        <v>-0.264206858571117</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.34323321998082</v>
+        <v>2.15672726990546</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0693332279469266</v>
+        <v>-0.748370653181698</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.179423430797349</v>
+        <v>1.66882351446408</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.360872855154456</v>
+        <v>0.232701702193124</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.10197061571321</v>
+        <v>-0.164869372703419</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.51889668899416</v>
+        <v>-1.61941583622219</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.866560535178067</v>
+        <v>-1.09104892831446</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.6606710137579</v>
+        <v>3.4037315821529</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.3258958376218</v>
+        <v>-1.17696725991867</v>
       </c>
       <c r="CY2" t="n">
-        <v>-1.59111205452818</v>
+        <v>0.105215669637401</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-1.39504347678715</v>
+        <v>-1.08735020120086</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.549978468141776</v>
+        <v>-1.84495754411949</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.181610326642432</v>
+        <v>0.44080853561061</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.566354994746532</v>
+        <v>0.733518673299103</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.703882239834422</v>
+        <v>0.145503311743547</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.0619800279610431</v>
+        <v>1.29248786449428</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.205194601343406</v>
+        <v>-0.245002827092241</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.932027119629167</v>
+        <v>-0.616023800750867</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.489307948063159</v>
+        <v>-0.980928317334861</v>
       </c>
       <c r="DI2" t="n">
-        <v>-1.43937141857572</v>
+        <v>-0.623651206937406</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.553233610567102</v>
+        <v>1.60294485214876</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.726642450152666</v>
+        <v>-1.46659276380458</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.86486497414622</v>
+        <v>0.469022718048015</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.397520005757382</v>
+        <v>0.614222571774926</v>
       </c>
       <c r="DN2" t="n">
-        <v>-1.10267088307772</v>
+        <v>-0.00231349501106697</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.642956799594908</v>
+        <v>2.00462639806888</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.205810607035928</v>
+        <v>2.31845633752396</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.352909212861216</v>
+        <v>-0.763829846780485</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.306687740718694</v>
+        <v>-0.342114624940823</v>
       </c>
       <c r="DS2" t="n">
-        <v>-1.71560841665214</v>
+        <v>1.48079978289973</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.806878480417625</v>
+        <v>0.0140882531542709</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.96051771349193</v>
+        <v>0.287367819016929</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.895147524959368</v>
+        <v>0.632913475655741</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.05999877551697</v>
+        <v>-0.447465853260043</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.204911257400106</v>
+        <v>1.58765661067787</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.694137346180055</v>
+        <v>-0.824037711730927</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.534533267916066</v>
+        <v>-0.983797267204067</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.531571279562635</v>
+        <v>1.99093200131612</v>
       </c>
       <c r="EB2" t="n">
-        <v>1.19704159207575</v>
+        <v>0.595809876395882</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.591692715832631</v>
+        <v>0.891309764756663</v>
       </c>
       <c r="ED2" t="n">
-        <v>-1.4895770087561</v>
+        <v>1.78232036779614</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.974978302253588</v>
+        <v>2.35673733592599</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.522849578164117</v>
+        <v>-2.27867697228229</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.232861270004726</v>
+        <v>-0.218245560927826</v>
       </c>
       <c r="EH2" t="n">
-        <v>-1.53758905787162</v>
+        <v>-0.612700473853812</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.484545366007226</v>
+        <v>-0.428259430616205</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.642937745638236</v>
+        <v>-0.294111744937982</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.976400435875186</v>
+        <v>-0.0513921415619817</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.603643795416822</v>
+        <v>-1.02967000951611</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.10733598962717</v>
+        <v>1.8307130526675</v>
       </c>
       <c r="EN2" t="n">
-        <v>-1.2671581907071</v>
+        <v>-0.82905515144577</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.301681628907489</v>
+        <v>-2.8747819781899</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0692169610556513</v>
+        <v>-2.18859696663867</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-1.01047354938234</v>
+        <v>-0.581064737716354</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.290309412738027</v>
+        <v>-0.834940993815689</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.72979176550386</v>
+        <v>1.32718626293105</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.325152216367343</v>
+        <v>-1.23272222265939</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.65411482729117</v>
+        <v>0.577764504072478</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0246289229789698</v>
+        <v>1.10956440720063</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.562119928334779</v>
+        <v>-0.0426535107009837</v>
       </c>
       <c r="EX2" t="n">
-        <v>-1.54240236778948</v>
+        <v>2.58262006381352</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.613908766986969</v>
+        <v>0.0922157385355689</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.22066976629704</v>
+        <v>1.11048942795083</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.0375237243651569</v>
+        <v>-1.07110626470803</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.387995492780193</v>
+        <v>-0.422976716622849</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.47753112719054</v>
+        <v>-0.444258358292901</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.212631165488538</v>
+        <v>1.25270891710844</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.294915592615741</v>
+        <v>-1.18814982526932</v>
       </c>
       <c r="FF2" t="n">
-        <v>-1.19820391626627</v>
+        <v>-0.102074147259108</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.298000349459213</v>
+        <v>-1.5674045092114</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.572046179879754</v>
+        <v>-1.56846305589484</v>
       </c>
       <c r="FI2" t="n">
-        <v>-1.00412508657158</v>
+        <v>-0.385509094793414</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.806532628518724</v>
+        <v>-0.0925678346462953</v>
       </c>
       <c r="FK2" t="n">
         <v>0</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM2" t="n">
         <v>1</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
@@ -1988,13 +1988,13 @@
         <v>1</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS2" t="n">
         <v>1</v>
       </c>
       <c r="FT2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
@@ -2009,25 +2009,25 @@
         <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ2" t="n">
         <v>1</v>
       </c>
       <c r="GA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
         <v>1</v>
       </c>
       <c r="GC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE2" t="n">
         <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
